--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2812.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2812.xlsx
@@ -354,7 +354,7 @@
         <v>2.44035673333005</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.364228100418264</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2812.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2812.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171971295300114</v>
+        <v>0.8848228454589844</v>
       </c>
       <c r="B1">
-        <v>2.44035673333005</v>
+        <v>1.671760439872742</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.001961708068848</v>
       </c>
       <c r="D1">
-        <v>2.364228100418264</v>
+        <v>3.781366109848022</v>
       </c>
       <c r="E1">
-        <v>1.231444759287369</v>
+        <v>0.5807180404663086</v>
       </c>
     </row>
   </sheetData>
